--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/8_Antalya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/8_Antalya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F92E7C-9C53-413B-97BA-F2CE935F2763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1894BCF7-3711-448F-8A9B-691FBC9F50E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{907CB733-CDD3-47BE-B91A-AFAA82D9313B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9514211-4AA4-47E9-8D96-B265E93D9BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0CAA7663-41BD-4582-BEF7-B7E054C3C1B5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C4C88654-0AD6-4640-B12E-B72191C60D03}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{59182EE7-BDA3-4F53-82F3-1554FFDF854D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{0BB3BEF1-8F38-4FE0-92B4-A860AD296ABC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{10D4ACCC-3762-430F-A6A4-0A9BFAEBF4A2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{49C89BDE-D7EB-46D5-B786-0B629A88DE4B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9ABDF713-3FA2-48D0-A48B-DA63AC2B778F}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{0DD6FAAA-6B5D-45F0-BE3F-63AEB50F437D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ED9378-F38D-44C5-AEFA-D01F964336BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E6F999-9411-4C9B-A255-4E8B25DA99D8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2509,18 +2509,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7EA40B69-6BF2-44FA-8C8A-35777E847F91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{37579595-16CA-43BB-8189-C87D2DD887B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{449E5ABA-BC98-4A5D-8D9F-42C1DE244D8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E3014D04-EC79-4C3F-B57C-140A992AED0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{178E78BA-BA5B-4624-A49A-DF0D0CEF19C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE615F0C-0141-4216-A8EE-5BE4656584DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4E477E33-FC8A-4B02-8133-B066A3D001EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67698AFC-75F9-458E-916B-9F797D3ED86C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8BE19DB7-5D93-445D-85F5-90A059D84D29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0D0AB1B7-C970-47F3-8893-FAEFC49168A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9C939B8-4AF4-42E3-B248-D57E3F675518}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B8109DA6-9CC1-4351-B657-0B271EC54BCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53F43B08-D6A0-44B3-B3B7-E129D0E18EB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3A7429BE-9338-4479-909C-9BA3CECC2477}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{146592F9-FE10-4F0E-A303-B66F554D5476}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1DB13005-A1A2-45E9-B0E7-4AA4B6723294}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B14D0CE2-D427-444A-8753-F85CEC198943}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D5935A6-2DAF-4FA7-9FC0-CBBF27162CC4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C00BADE6-256F-495A-B96F-041BB3840CAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1F3DC8B6-417C-4C97-B5DE-E3CE4B8FC402}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C040EC87-EAF2-4D7E-82A5-310B7AB501C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F244339C-F15A-48D9-B7DF-7A520B858F99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81D24CE5-118E-4ACA-8624-15DDC87E90DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4713C3DA-0CAC-4717-A082-DB5F1F020489}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2533,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC281F-A0B9-4854-8F7F-EFF576D6D7B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EA67C1-9AE5-4EB3-B176-E4E10281D2EF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3782,18 +3782,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9941A378-199E-4C84-A5CC-BD5A447002B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A0B72238-FBB7-4EB4-93D7-F87EEC13A533}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{044CAF35-CF2E-4E65-A5C2-92C2FC8D67DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{134318EC-E7BA-4357-9877-EBBD88C42FB2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C37614C8-FF6C-4380-80D1-5AC6774A6E65}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9F020624-7430-4A09-85B4-DA13505349A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{62A2A009-F60F-4D21-B9C9-15729C0AB90E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1C69E103-7FF3-40B3-9B24-76CC9FA66068}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4AE4B7AF-1EB5-472B-ACC6-AEA354AA8DAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{272AE44D-D76D-4627-9CC2-5E82A7C09018}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F46C6C9-06D7-4EB3-ABCC-C9D3047709CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{84AB5776-62B4-4D6B-9184-359D2E2A4D0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A2061E00-2594-4F46-9D7D-0AB67979388E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7C24593-3410-4A6F-9BC0-C0AB0C3EB828}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{820387FD-CFB2-40D0-8D8B-A717F638EB8D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1C2AC350-6CB4-4321-AFCD-B879DFC0CE23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A7D5F159-4F33-4B48-99F7-3F4A6FA84592}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93A366DD-EBC2-4369-8F83-5F0F89968181}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E678DC46-8100-4FFC-A45A-63BA07C629EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1F52F0B-89D9-4DF9-AB02-3705341878A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3C341CFA-C21D-4664-B68C-82073F3E6E8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9CA0D1B1-DCF5-4B6D-8320-ED62EF760078}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC441DDE-B11D-4D2B-8ABC-F1CDAB0CFD66}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D082493B-D674-4948-BC34-B4F861B7CF28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906C3ECD-D797-40F5-9A25-6D8D18FB018C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4738629B-4874-4B70-A4C2-31D273A97099}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5047,18 +5047,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84100600-20BE-49BA-A319-68F9EB987859}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0153B94B-89CF-44F9-80BB-8345C8756CA0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F05809EE-F243-48B7-B80A-F27A92D5C798}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{115E6E6E-B2EA-4582-9201-3A02363D2EE0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1447D7D2-A6D2-44BE-A976-3A7BE2F37899}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E494F8EA-4403-46B0-A165-B51A9D27A0BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F95F2EFD-D2D9-4B28-8B36-076782EBB81A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A75FA73F-621A-4FC2-9EFE-C9878A33CD6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3AB8E374-CF8A-44E9-878B-C28B49E3A5D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3CE24786-35D5-488F-A2CA-321662F5C83C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BBBBDC13-1876-4A6F-96C1-0E8D5A15E5A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{80E798FA-62E4-40F4-812D-3282DE8CFA16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{25E4239E-AF79-4C08-9A69-764B36264E15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4DAF11A8-18B3-4021-AF12-EABA0021EDE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C03AA76F-BEBB-46FB-8470-B297371EB082}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF9C1BF9-E059-4618-9AAF-EDD922184943}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CCF8D70B-3398-41DE-904F-180ACABC7DE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F074EC48-DF36-487A-AD64-36F6A4AF109B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2BE582D2-7617-4189-B52E-C438EF0C8036}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7E35E5B-604E-4D42-AB1F-8E789C1E63CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D1917665-AE61-408B-8998-1F2BC0A5A900}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{27F93940-A06A-4638-A88E-B3537D118319}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DDDFA94-6898-4D7D-873B-36C4143B36E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BB30DE12-17AB-4DBB-B7C4-B5BFA3859701}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAEB38E-CBC8-42D8-9DA8-2E9BCF9E9C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BBEE24-E959-4238-9A72-79629DC055C9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6290,18 +6290,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D9F394AC-F2B1-4895-8F68-AF616FEEF6E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8DA33CA1-D232-475E-9682-D49CFADDCEAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{259471CE-A298-499A-9E0F-1647DE782A61}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FB3E87B3-8BDD-43D7-8B19-32889FBC4249}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CBA9BEA5-9747-4614-A4BE-5787F2915B3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{23C80E57-915B-4643-9CF3-99DCAC434BFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9CD8522E-D5D1-4624-90AB-5EA90312A0D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{998CC32B-3B6E-40AE-95BC-388CB21539F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16BBEE1E-D9B6-4DD7-B9D8-4278B6BAFE43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A3ED045F-48D1-48D2-9753-2E53D49FAEAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D9D32D4E-E216-48FF-A22A-855B8E3D1512}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F0C809A5-145C-4EB1-B4E5-998DD02820BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99DC8ECE-1E40-4C13-9ED5-0AD8632E92B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B780B9FA-F544-4E49-A452-2EAEC5D5ABAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A0D3F63F-11A8-4CF2-B31D-323535A0B85A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5990D98-181E-457E-8E7C-F911B153A348}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6C443097-B2DF-4C19-A10C-F9116E2062F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B27FD87-D474-4BC8-BF05-FA2FE9A40418}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{97823AB2-1E6D-4DD6-B73F-4144209FBAF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8836604D-8880-4F4D-BFA3-7D0BE50CAF48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2A029F2D-4F77-440A-8935-C2386F07086F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A4ABB398-7F26-4C4C-988B-50B85ED296F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1D659C03-D96A-4DFB-AF67-7B9F4FA394CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9BCD2D6E-7137-4328-B39A-6DDF83C80EA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6314,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E151ABF-6E0A-4664-91B8-8A0DBB6AC4D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F50EFF3-DC92-442C-B02B-CACD22B7B72F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7585,18 +7585,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B8C332D-CB2B-4C18-8995-324795B676F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ED1D8EEB-317C-4555-ACD7-8DD03F98C886}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{637FBD1C-364A-44FC-93CB-6B7ADE2D329F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B9842E0B-D65A-48B9-A19F-4FC07BFFEAFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E0AAB5A-5523-4A78-B4D7-F9768A4CA190}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{64469E64-18EC-4084-8B89-0659E9472C74}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1AD3E53E-9922-4E27-B64E-5578773D5057}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{186C4FE8-6896-4198-B50E-D64777254399}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EF970735-A765-4176-B082-F9625EE7CE54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D96111EB-F203-4B93-839D-C8088DB88ACC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84B6D160-C409-4172-87F7-4640D4A52026}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AA59A244-003A-465B-ADE4-CAA9A1AE6942}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0636526-E8FB-46F5-A349-620A9FA75507}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7FBFAB3A-547A-4C9E-A38C-4AB85C7FE479}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{272D3F19-7E15-4330-8460-5E94AFAF6E67}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E01D367A-312E-46F4-9A21-27DE0F5B668B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9223C0BB-49E7-48C4-BA28-D314AB356BED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{09F162CB-0CDF-4DB8-8A58-7AA2BA6611F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0BAF95C6-A8D5-4162-9EB7-21F8F2C7CA0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4D66D341-47F5-4105-A9EB-66D6EB1EF220}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{019F8A21-8D99-4CCD-9D17-1D53BEC89662}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA72521B-9F40-4BCA-A451-95120D4033A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C8AA33FC-F72B-4A79-85A2-EB4B40239892}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A0FE068-92B5-49B9-8E3E-9C24254B3B7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BD16F3-0F10-4056-8DA2-D8E1FB97420A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5AECCA-AFD4-4D17-B6CE-EDBF29D98469}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8880,18 +8880,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{75278BD3-D8EB-48D4-A655-58F985B54951}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{367D696A-A05F-4FFF-9DAA-440E3CC20966}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A6333E26-9F3C-4236-B19A-4178B20CA818}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7FC06D35-DC33-496D-BC35-6E92D221A37D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1BCCA5A7-EC30-47D0-8E4B-BBEE26BDB6E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FEF24492-B098-41EA-8E23-386C5CBD3221}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{43DF6DC8-5EB7-4905-BBBD-A58EBED27F34}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{720ABF30-7300-4878-BC9D-7457226B9294}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{785D8514-F9AD-43FF-BDB5-ED3C99B8D07F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7A7CFBE6-6523-4A3B-860C-0CDF42EBEAE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FE08BA34-381B-43AE-8609-46D46D146863}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6381B045-19C4-4F6B-A9B5-580A0A669D4A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{797BEBF5-440A-40B7-AB12-925C86EE30AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F22A6227-B277-46B4-B89E-C15A79C9BA5A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A6A50469-706F-4521-9E5B-996DA326E0FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{427DC1D8-1FC5-4E34-B375-522CDABE72C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F68502B8-7E43-4B39-B15E-5381A3042AAB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BB267930-A992-47D5-A02E-973D49201CB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A8F3B432-5241-4B9C-961F-88A6A79A8718}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{237A12C8-2826-4129-8B51-B0A97CC5310E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7CDDC3E6-A766-436C-A2B1-F48F1F3DFB1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BD420E7F-2586-4704-8CB2-2B9FDDA8981C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FD9A838E-09B7-4069-8CE2-1AC931BC8DF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2296C1EB-1BCE-455B-8AFB-758924B1D690}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8904,7 +8904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7E4AF-1DC0-4D23-B3CA-CB9A7D879543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB08A0-80D5-4AA9-93A4-180F21CEA942}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10175,18 +10175,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{054AD550-349F-4E49-AF48-AAF5655F96BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A7479EF-8CDA-458C-ACE6-C2CE98375109}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{74C15C50-E36B-4403-B71E-84ABEE747A4F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{465AB4FA-376E-491B-92C4-E9D3FAD43B86}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3638756B-A24E-4E35-A552-5704B9CEDAAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C9ED1D4A-80A3-4002-A41C-6603F8F53EEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{37A0F731-04A1-4340-A0E5-C000176F4E1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D0D0D9F-F3D6-47F1-A274-A81CBB8B80E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DE5BDF74-C9F0-4C71-932F-06CDF7767766}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1A99124A-937E-43F2-8E01-1CC4949FCD33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{288303FA-F4D0-4ECD-B8DE-3A7606C53F8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{806E444A-835E-4572-8688-5DF4059DBD89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E8D5AF56-176A-4681-AFEA-823DB6A136E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A7A4733A-7EC2-4265-AB6E-7DAEB4C75101}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{62F74789-AB51-4F8E-93D6-D2C91AF43952}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9CBABD1D-0AE9-488F-8CBF-741B322DA696}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F9BCBCD-898D-402C-8B3D-A119A84619CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{27145A6B-187F-4E7B-95B7-1BFFB3FB13A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5331768D-091E-40AD-894F-20FE50DF8DBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DFB5A01D-3053-4A06-8FC8-00A0808BF737}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ACABBFEC-3932-479B-AF07-B9FF0318A87C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{687B4655-79DC-4247-9C28-624C51714F40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{437147B0-BE0E-4A23-BB50-5E59D6BF42B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F5A32544-2036-469A-8DB6-D67CDC033035}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10199,7 +10199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90888631-DE90-4CF0-9497-2E7F5DFA3BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4647EFB4-4B84-42D0-BA1F-AB7F36952B6C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11460,18 +11460,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{07A08C29-01D0-4DDD-908D-C73D85D41B9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7E88D07-9E6F-4807-8C8B-22F6C6EFB13B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7FF6465-E984-4CBE-AFEF-4EF92598AC0D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C02684ED-5E55-408A-B822-F601355B2378}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E3415BE9-BDA7-4976-9272-ABE9435DD802}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E37E9C8-A193-434E-A14D-5C940545ADA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{846A4A29-233C-4989-9802-C76E76AF51BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3D9A6A46-7B98-419E-A942-2C076B386BB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A080587A-3B6E-41AD-8D08-065A9EDEED61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{39048A71-7009-493E-8B59-4603BA34254E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{083E08C8-5EF4-4AFF-A9BD-DA9E635BF350}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33957CF1-05DC-479D-B3AF-19CF4F77338A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87935453-58FD-4590-9CC6-8810FF50C9A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D5763996-D05B-44C1-BCEB-7625EB45CAD1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{100F7187-50F1-4779-9CFD-618D22DF88FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F618C6FE-1398-4F1F-9D5D-D78AD37B61CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2CD4FE4B-EAB2-4016-8DCC-931DFDA1481C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{56EDFE06-DB7F-4BC7-B0F5-D6CEE2F529C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F6E13375-AB26-414C-9DA7-548FABF253B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EFEEBFED-CE41-42B1-BFF8-E0BCB37AF4A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FD015929-FD68-4EF2-AA17-437CA9E57456}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4FB70AA6-BDC2-4A9D-8C1E-127DA585A8B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7274019C-62E4-44E8-99B2-02899AD6D117}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6724D67-B09B-4CA2-85E1-6FE5E4272EFD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11484,7 +11484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769F7FCD-96F9-4E61-A795-737BB370DB64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC6BAD9-80E5-4A5B-87F3-9F72165DBC54}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12745,18 +12745,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EEEA042F-67AC-40BB-A8F7-8045665B1E29}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{69A34D0F-0414-433B-8FAB-6E982F33D56F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{66D90FA9-F9B3-4C51-8CC4-493D75B7B257}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7ED802F9-A268-4A7C-82D6-0E6CCFF7B239}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6902D5F5-621F-4884-B0E3-F7D02F6C1AF6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8C092C9-E39F-41D5-ABB1-BFBBAF36A957}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F4A895A0-8BF6-4F32-AE80-3DE2A61CCACF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{825B0606-47BC-49B2-A2E4-018728D45061}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5747E899-B6E2-44AB-912F-5DC954CEBC4E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B9A34B67-BDBA-4DB5-B28D-DEF7C428C2A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{42D44597-1D22-45D2-9B89-6D033D8B5141}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F18E1B21-15C3-4962-A4AD-5942FBE1D956}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0C8F9957-D764-4828-BFA8-A718871589F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{310C7B26-684C-410C-8722-0B9209572FC9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B6217C8C-7FA3-4874-AADC-2F8AA83B3C58}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EAB04DA6-6C5D-46F4-8ABC-D86F743884A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DA089042-C208-4E20-BD36-1E1838930F79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E8318EE8-2BB8-47BF-8A1E-8A7BB6507BF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6CA958D-C2FD-4B48-B867-8937128A5C68}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{003F7817-F58A-4B32-9F7C-A635D6D88E7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{06208D05-B3A2-4586-BDDA-5582617EE132}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{953C604D-BC37-4F31-B7F5-6E6F9C6CFEC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{83C09474-A892-4FCB-BB8B-FB08B6736B8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A12B08D-A582-4068-B42E-3EEC2CD1BF67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12769,7 +12769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79CAA50-E9A3-4EE7-8F17-BFBE474A8716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C18A01-D1A9-427A-B5C2-16645F2B25F9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14026,18 +14026,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E63A3434-6211-4579-9DA0-0474220FC8D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{353B9A34-3F38-4072-846B-EDC87998A6CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6BA6DFDC-70E5-496B-BF1B-4F100F60A01A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{130840B8-77E9-4B32-BE7F-1A61AFC58A2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93021DC4-E203-499F-93E2-A905BCB8E6FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8D2D9D81-C0E5-4746-B192-6DF152198ACD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6BE0F599-CEA6-4532-8F3D-3D093B1D6A88}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5583783E-9F55-4CD3-BC39-7AB26E2E3DAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA723C03-7E49-4162-BD0D-E6E2FD6BD8D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8789D2FE-21D7-40A6-9C05-6C662A6367ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2667AFB6-8A28-4F36-89D2-065DDE8CAA6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A7A6BB8-942D-41FB-988B-225A755A82B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C81701C-E61A-430E-B7EB-FF2EF6733B27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A72EF32-D45C-4FE0-91A6-4B6EA04A837B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{35C43C2C-7DCA-447E-A1C8-832525EB543C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{86EC09EF-2984-4DC9-B364-561A64103F4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7F35E44E-02FF-4A13-9111-0CC7C073D611}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{556CBC56-03EC-4970-89EA-53E83B0D5266}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93F1D7C5-D53E-491A-9CE9-1292307CB26D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A3758D3C-5811-4260-99BB-6AAFCC071CA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21B74663-9D0B-4B2B-85EE-6A8221CC0867}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{068DF7E0-55AF-432F-984F-407369C380B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CD18C8DF-D5A5-4D0F-B1DB-5F335DD807E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9EFB2D39-C76C-41B9-8BC2-687C90C78536}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14050,7 +14050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E894A-E491-4E18-8C6D-9C061DE034F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920BFC33-3AA8-4113-8208-0D33662D8164}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15307,18 +15307,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{73E26A9D-FE6F-4E78-A4BC-E6BBE9FA808C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{796427C3-4ECF-4B1F-BA93-CD45BAD464FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{578F3459-A25E-4616-A3B6-CE3E78D3D953}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3723BDD6-5ADB-4B14-B021-E33EC85E19A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{492D21F0-DC11-41C6-B0CF-72EF0E344592}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{653903B8-215B-4693-A7DC-6E9A2E9755DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB329927-1C0F-4E38-B4B7-7ACC7E25D9C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2EB95F57-B6E6-464D-BEDD-43A7BE4804C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5FA15B9B-EBC3-47BF-92FC-0A802E6E0EA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{94C4366F-45BC-4336-B5CB-F714B188A02D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1ACCABFA-4846-432E-A2E8-E76F94CC439D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9095DECB-3B42-4232-9C61-F2F503E63F88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6D7EF5B6-4974-4323-90DB-93A2AB91D8DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1BD70BA0-41AC-40D5-86C8-CD0DD4478589}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E721F93C-B925-4B7D-B347-10A5E9516EE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BB1B2F0B-FFBB-4BA3-BC7E-744DF21652CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D147C626-DF01-4CFF-8829-79F7CD68173D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{813F8979-8B04-41E0-93D7-2DCC429C1223}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41ACDA77-78C3-45B9-ACDE-B2CB56E931AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{03B740DD-1D22-41B4-BCFD-99FC24F00AFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{61002509-B66D-4648-A196-F2CA95A83BA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BB3992E3-4F0E-4676-AF1F-E54D89054CEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7DAEAD26-BDF6-40DA-9785-AC618D093C7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C28BEED9-D1F8-4425-8577-A9D57F442394}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15331,7 +15331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E4A381-F672-418A-B5CB-2AB838881AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727EC93E-5136-49CF-8070-12048CC45B01}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16584,18 +16584,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A9F0D7A-D72E-493E-BDC6-6B83346F42A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A0FA196-0B4B-4E22-BFEB-0CF8F4E64994}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C2B1A67C-2F3F-4A3F-879F-7621F11437A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD365553-DB87-459C-AAEB-7FAC046100CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ECFE0D90-C854-47DA-AE3E-FCC19A3050F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{52800B2B-F41C-4423-8D5A-6AC013776036}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4CF9E840-AEFE-41B1-8DE7-5D416BBC258F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0948D852-BA56-4ABF-BE6A-E86350C20DBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{435F0C16-D0F6-44D1-982D-CCEC4AFAB00B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0C588FB-C953-4697-9A81-C78420263C5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{173727E4-BE47-4172-92EF-BC2CB11BF1B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D17597C2-7D82-494F-A944-8F58DCC1C499}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9D4EE82-5EB0-40BA-9BD0-B4A6A6C207C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7B89CFC-6FCF-476C-83C5-2CED01FB5A3E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FC6A800B-3EFD-4273-9AEB-DB316C069593}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{256DC7E1-B8B2-432A-9792-DBB3B7E82437}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4C5FFC44-7B77-477E-96CA-A0BC9990A5DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{31A2B79D-311D-4EC8-88FA-FE91635BF452}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9931BDD7-86A8-4269-B8F5-AFAD173F4178}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BBC29F80-EC04-4D6E-8FE4-E4890CA1F83F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4A567186-4D0A-41D5-BE4A-2ADA5935EE5E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E05637E4-1976-4B45-A6DF-CF47ACFAED52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C77F05D0-76E3-4CB0-911E-0D3C3960E0C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{551B9B57-8CE3-428E-BAC9-EB19F0B62881}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
